--- a/biology/Médecine/La_Guardia_Committee/La_Guardia_Committee.xlsx
+++ b/biology/Médecine/La_Guardia_Committee/La_Guardia_Committee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Rapport La Guardia (La Guardia Committee) a été la première étude détaillée sur les effets de la consommation de marijuana commandé en 1939 par le maire de New York, Fiorello LaGuardia, à l'académie des sciences de New York. Il contredit systématiquement les allégations formulées par le Département du Trésor américain.
 </t>
@@ -511,9 +523,11 @@
           <t>Conclusions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après plus de cinq ans de recherche les membres du comité a rédigé un catalogue de 13 points saillants[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après plus de cinq ans de recherche les membres du comité a rédigé un catalogue de 13 points saillants:
 La marijuana est utilisée intensivement dans le district de Manhattan mais le problème n’est pas aussi important que ce qu’il en est rapporté dans d’autres parties des États-Unis.
 L’usage de la marijuana est récent ici comparé à d’autres villes.
 Le coût de la marijuana est faible, elle est donc accessible à la plupart des personnes.
@@ -556,9 +570,11 @@
           <t>Conséquences</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publié en 1944, le rapport avait certainement contrarié Harry Anslinger, qui il marque comme non scientifique[pas clair][2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Publié en 1944, le rapport avait certainement contrarié Harry Anslinger, qui il marque comme non scientifique[pas clair].
 </t>
         </is>
       </c>
